--- a/biology/Zoologie/Homalocephale/Homalocephale.xlsx
+++ b/biology/Zoologie/Homalocephale/Homalocephale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homalocephale calathocercos
 Homalocephale est un genre éteint de dinosaure herbivore et bipède qui a vécu au Crétacé supérieur. Ses restes fossiles ont été trouvés en Chine et dans la formation de Nemegt en Mongolie.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien ωμαλος, « homalos », « plat » et κεφαλή, « kephalē », « tête », pour donner « tête plate ».
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesurait entre 1,5 et 3 mètres de long et pesait environ 60 kilogrammes. 
 Comme les autres animaux appartenant à l'ordre des pachycéphalosaures, Homalocephale portait une excroissance osseuse en forme d'arc sur la partie supérieure du crâne et plus épaisse que le reste, on pense qu'elle servait pour les combats entre mâles de la même espèce pour la place dominante dans le troupeau ou lors des combats pour la possession des femelles, il y a aussi la possibilité, moins probable, que Homalocephale l'utilisait pour se défendre contre les prédateurs.
